--- a/01_五步法工具-产品经理岗.xlsx
+++ b/01_五步法工具-产品经理岗.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/197c79658e36195e/04 marketing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/197c79658e36195e/04 marketing/01 简历/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{22503D9D-A590-422B-93E4-FAB7C2E5DE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA111A08-5978-4270-8110-4D22148D399D}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="8_{22503D9D-A590-422B-93E4-FAB7C2E5DE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBB8FFC5-9466-4897-B5A4-4DC6484DE087}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="产品岗" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="112">
   <si>
     <t>靶心</t>
   </si>
@@ -32,24 +32,15 @@
     <t>代码检查服务（代码提交/检查）</t>
   </si>
   <si>
-    <t>曲库管理服务（在线音乐管理服务平台 ）</t>
-  </si>
-  <si>
     <t>框架部署服务</t>
   </si>
   <si>
-    <t>把Excel的PowerQuery上的招聘流程迁移到多维表格并迭代，覆盖笔试、协同面试、offer谈判、offer发放等环节。</t>
-  </si>
-  <si>
     <t>职责</t>
   </si>
   <si>
     <t>从0到1负责在多维表格工具调研、需求分析、需求管理、数据分析、产品设计、项目跟进和PRD文档/使用说明文档撰写、低代码部分技术实现。</t>
   </si>
   <si>
-    <t>从0到1负责竞品调研和产品设计，包含需求分析、信息结构、功能拆解、线框图等，跟踪开发进度和用户反馈。</t>
-  </si>
-  <si>
     <t>从0到1负责竞品调研、需求分析、产品设计，项目跟进和PRD文档/使用说明文档撰写。</t>
   </si>
   <si>
@@ -57,12 +48,6 @@
   </si>
   <si>
     <t>效果</t>
-  </si>
-  <si>
-    <t>打通PM、美术、策划、测试工种，共53个岗位的信息烟囱，沟通和管理成本降低30%</t>
-  </si>
-  <si>
-    <t>支持管理团队、HR招聘团队和技术面试官团队共25人的实时协作，沟通和管理成本降低50%</t>
   </si>
   <si>
     <t>硬技能</t>
@@ -215,10 +200,6 @@
     <t>资源积累</t>
   </si>
   <si>
-    <t>负责需求分析、需求管理、产品设计、项目跟进和PRD文档/使用说明文档撰写、多维表结构设计。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>补充材料</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -302,10 +283,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>完成测试用例发布模块、压力测试模块的全流程覆盖，支持项目的月常规版本测试和专项测试。覆盖300+轮测试任务，降低测试成本30%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>自动化测试平台（月常/压测/专项测试/发布服务）</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -354,14 +331,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>7年产品经理和研发工程师工作经验，完整的从0到1产品搭建经验，熟悉B端用户的沟通和痛点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>覆盖研发人员100+，提前识别并预警总BUG 10W+，其中重大BUG 1000+，避免线上事故发生。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>轮岗调研+技术验证基于UE5引擎的开发美术工作流</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -375,18 +344,6 @@
   </si>
   <si>
     <t>2022.9~2023.11</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>面向业务部门，打通内部信息流系统，优化工作流程，实现降本增效
-● 需求调研、需求分析、需求管理
-● 产品设计、项目跟进、PRD文档
-● 数据分析、多维表结构设计、低代码部分技术实现
-● 使用说明文档、跟踪用户反馈和产品迭代</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成一键部署工具、QQ炫舞协同平台、校园招聘系统、代码检查服务、自动化测试平台等产品项目，累计为260+岗位，平均降本增效30%以上</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -476,6 +433,70 @@
   </si>
   <si>
     <t>对业务部门传统手动配置原始环境和拷贝更新包的工作流程进行重构。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责技术调研、前后端开发维护、构建DevOps工作流、数据可视化和数据分析</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人职责</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求调研、需求分析、需求管理、 产品设计、项目跟进、PRD文档、数据分析、多维表结构设计、低代码部分技术实现、使用说明文档、跟踪用户反馈和产品迭代</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向业务部门，打通内部协作系统，优化工作流程，实现降本增效</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成一键部署工具、QQ炫舞协同平台、校园招聘系统、代码检查服务、自动化测试平台等产品项目，累计为260+岗位平均降本增效30%以上</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>打通PM、美术、策划、测试共53个岗位月版本核心数据的信息烟囱，沟通和管理成本降低30%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责需求分析和管理、产品设计、项目跟进和PRD文档/使用说明文档撰写、多维表结构设计。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>把传统PowerQuery的招聘流程迁移到新多维表格，覆盖笔试、面试、offer谈判和发放等环节。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持管理团队、HR招聘团队和技术面试官团队共25人的实时协作，大幅降低沟通和管理成本。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>从0到1负责竞品调研、需求分析和产品设计，跟踪开发进度和用户反馈</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖研发人员100+，提前检出并预警BUG 10W+，其中重大BUG 1000+，避免线上事故发生。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成测试用例发布模块、压力测试模块的全流程覆盖，支持项目的月常规版本测试和专项测试。覆盖300+轮测试任务，降低测试成本35%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7年产品经理和研发工程师工作经验，完整的从0到1产品设计和搭建经验，熟悉B端用户的沟通和痛点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线音乐管理服务平台</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.3~2020.9</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.8~2020.3</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +598,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -600,13 +621,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -625,50 +683,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,6 +768,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -982,11 +1062,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1008,11 +1088,11 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
@@ -1026,615 +1106,636 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" ht="108" x14ac:dyDescent="0.15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="11">
+        <f t="shared" ref="C13:C23" si="0">SUM(E13,G13,I13,K13,M13)</f>
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="12">
+        <v>3</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="12">
+        <v>3</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="12">
         <v>2</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+    </row>
+    <row r="14" spans="1:13" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="1:13" ht="108" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="14">
-        <f t="shared" ref="C12:C22" si="0">SUM(E12,G12,I12,K12,M12)</f>
-        <v>8</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="15">
-        <v>3</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="15">
-        <v>3</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="216" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="C14" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="15">
+      <c r="D14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="12">
         <v>1</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="15">
+      <c r="F14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="12">
         <v>2</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="15">
+      <c r="H14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="12">
         <v>2</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="15">
+      <c r="J14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="12">
         <v>2</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="1:13" ht="81" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="14">
-        <f>SUM(E14,G14,I14,K14,M14)</f>
+      <c r="L14" s="5"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" ht="81" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="11">
+        <f>SUM(E15,G15,I15,K15,M15)</f>
         <v>10</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="15">
+      <c r="D15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="12">
         <v>3</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="15">
+      <c r="H15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="12">
         <v>3</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="15">
+      <c r="J15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="12">
         <v>2</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="15">
+      <c r="L15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="14">
+    <row r="16" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="15">
+      <c r="D16" s="5"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="12">
         <v>1</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="15">
+      <c r="J16" s="5"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="14">
+    <row r="17" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="12">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="12">
+        <v>3</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="12">
+        <v>2</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="12">
+        <v>3</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="11">
+        <f>SUM(E18,G18,I18,K18,M18)</f>
+        <v>7</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="12">
+        <v>2</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="12">
+        <v>2</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="12">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="81" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="11">
+        <f>SUM(E19,G19,I19,K19,M19)</f>
+        <v>4</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="12">
+        <v>1</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="12">
+        <v>3</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="15">
-        <v>3</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="15">
-        <v>3</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="15">
-        <v>2</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" s="15">
-        <v>3</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M16" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="14">
-        <f>SUM(E17,G17,I17,K17,M17)</f>
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="15">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="15">
-        <v>2</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="15">
-        <v>2</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="15">
-        <v>1</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="81" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="14">
-        <f>SUM(E18,G18,I18,K18,M18)</f>
-        <v>4</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="15">
-        <v>1</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="15">
-        <v>3</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="15"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="C20" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="15"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
-      <c r="B20" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="14">
+      <c r="D20" s="5"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="15"/>
-    </row>
-    <row r="21" spans="1:13" ht="108" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="D21" s="5"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" ht="108" x14ac:dyDescent="0.15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="15"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
-      <c r="B22" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="14">
+      <c r="D22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="15">
+      <c r="D23" s="5"/>
+      <c r="E23" s="12">
         <v>3</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="15">
+      <c r="F23" s="5"/>
+      <c r="G23" s="12">
         <v>3</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="15">
+      <c r="H23" s="5"/>
+      <c r="I23" s="12">
         <v>2</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="15">
+      <c r="J23" s="5"/>
+      <c r="K23" s="12">
         <v>3</v>
       </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="15">
+      <c r="L23" s="5"/>
+      <c r="M23" s="12">
         <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:M4"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:M2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1646,9 +1747,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DC2F1C-BC37-4AAB-8C41-5E3691FEC26B}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B8" sqref="B8"/>
+      <selection pane="topRight" activeCell="F5" activeCellId="1" sqref="D5 F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1667,455 +1768,465 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <f>SUM(E10,G10,I10,K10)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="15"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="A11" s="5"/>
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="11">
         <f t="shared" ref="C11:C21" si="0">SUM(E11,G11,I11,K11)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="15"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11" ht="162" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="A12" s="5"/>
+      <c r="B12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="12">
         <v>0</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="15">
+      <c r="F12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="12">
         <v>0</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="15">
+      <c r="H12" s="5"/>
+      <c r="I12" s="12">
         <v>0</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="15">
+      <c r="J12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="A13" s="5"/>
+      <c r="B13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="15">
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="12">
         <v>3</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="15"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="14">
+      <c r="A14" s="5"/>
+      <c r="B14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="15"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11" ht="364.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="A15" s="5"/>
+      <c r="B15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="15">
+      <c r="D15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="12">
         <v>1</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="15"/>
+      <c r="F15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="14">
+      <c r="A16" s="5"/>
+      <c r="B16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="15"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="A17" s="5"/>
+      <c r="B17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="15"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="14">
+      <c r="A18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
-      <c r="B19" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="A19" s="5"/>
+      <c r="B19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
-      <c r="B20" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="14">
+      <c r="A20" s="5"/>
+      <c r="B20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="15"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="A21" s="5"/>
+      <c r="B21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="15">
+      <c r="D21" s="5"/>
+      <c r="E21" s="12">
         <v>2</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="15"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="A22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="A23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="A24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C3:I3"/>
@@ -2123,10 +2234,6 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
